--- a/rf6809/doc/insn6809.xlsx
+++ b/rf6809/doc/insn6809.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cores2022\rf6809\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E74458-EAEC-42A2-8DC4-7CB4978E28D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20115" windowHeight="9540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="656">
   <si>
     <t>00</t>
   </si>
@@ -1104,9 +1110,6 @@
     <t>FF</t>
   </si>
   <si>
-    <t>rtf6809</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -1323,9 +1326,6 @@
     <t>1rri1010</t>
   </si>
   <si>
-    <t>EA = ,R + 32 bit offset</t>
-  </si>
-  <si>
     <t>1rri1011</t>
   </si>
   <si>
@@ -1347,9 +1347,6 @@
     <t>EA = ,PC + 16 bit offset</t>
   </si>
   <si>
-    <t>EA = ,PC + 32 bit offset</t>
-  </si>
-  <si>
     <t>1rri1111</t>
   </si>
   <si>
@@ -1903,13 +1900,103 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>rf6809</t>
+  </si>
+  <si>
+    <t>EA = ,R + 24 bit offset</t>
+  </si>
+  <si>
+    <t>EA = ,PC + 24 bit offset</t>
+  </si>
+  <si>
+    <t>Indexing Postbyte - 12 bit bytes</t>
+  </si>
+  <si>
+    <t>0rrddddddddd</t>
+  </si>
+  <si>
+    <t>EA = ,R + 9 bit offset</t>
+  </si>
+  <si>
+    <t>1rri00000001</t>
+  </si>
+  <si>
+    <t>1rri00000011</t>
+  </si>
+  <si>
+    <t>1rri00nn0010</t>
+  </si>
+  <si>
+    <t>EA = ,R + 12 bit offset</t>
+  </si>
+  <si>
+    <t>EA = ,R + 36 bit offset</t>
+  </si>
+  <si>
+    <t>EA = ,PC + 12 bit offset</t>
+  </si>
+  <si>
+    <t>EA = ,PC + 36 bit offset</t>
+  </si>
+  <si>
+    <t>1rrio0000100</t>
+  </si>
+  <si>
+    <t>1rrio0000101</t>
+  </si>
+  <si>
+    <t>1rrio0000110</t>
+  </si>
+  <si>
+    <t>1rrio0001000</t>
+  </si>
+  <si>
+    <t>1rrio0001001</t>
+  </si>
+  <si>
+    <t>1rrio0001010</t>
+  </si>
+  <si>
+    <t>1rrio0001011</t>
+  </si>
+  <si>
+    <t>1rrio0001100</t>
+  </si>
+  <si>
+    <t>1rrio0001101</t>
+  </si>
+  <si>
+    <t>1rrio0001110</t>
+  </si>
+  <si>
+    <t>1rrio0001111</t>
+  </si>
+  <si>
+    <t>1rri00nn0000</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>TSTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,6 +2022,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1973,7 +2067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2022,6 +2116,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2032,6 +2130,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2080,7 +2181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2113,9 +2214,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2148,6 +2266,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,12 +2458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AD174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
@@ -2346,22 +2483,22 @@
     <col min="28" max="30" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30">
       <c r="B2" s="23" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30">
       <c r="D3" s="12" t="s">
-        <v>362</v>
+        <v>626</v>
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30">
       <c r="D5" s="3" t="s">
         <v>105</v>
       </c>
@@ -2435,7 +2572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30">
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2469,7 +2606,7 @@
       </c>
       <c r="AD6" s="5"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +2680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30">
       <c r="D8" s="8" t="s">
         <v>1</v>
       </c>
@@ -2595,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30">
       <c r="D9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2647,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30">
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2721,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:30">
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30">
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30">
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +3058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30">
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +3102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30">
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
@@ -3039,7 +3176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:30">
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:30">
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
@@ -3187,7 +3324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:30">
       <c r="D18" s="8" t="s">
         <v>11</v>
       </c>
@@ -3239,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:30">
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
@@ -3313,7 +3450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:30">
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
@@ -3371,7 +3508,7 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
     </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:30">
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3433,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:30">
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3484,7 +3621,7 @@
       </c>
       <c r="V22" s="14"/>
       <c r="W22" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="12" t="s">
         <v>296</v>
@@ -3500,10 +3637,10 @@
       </c>
       <c r="AC22" s="14"/>
       <c r="AD22" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:30">
       <c r="D24" s="3" t="s">
         <v>105</v>
       </c>
@@ -3577,7 +3714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:30">
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -3611,7 +3748,7 @@
       </c>
       <c r="AD25" s="5"/>
     </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:30">
       <c r="D26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:30">
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:30">
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
@@ -3797,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:30">
       <c r="D29" s="1" t="s">
         <v>19</v>
       </c>
@@ -3868,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:30">
       <c r="D30" s="8" t="s">
         <v>20</v>
       </c>
@@ -3934,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:30">
       <c r="D31" s="12" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:30">
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
@@ -4068,7 +4205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:30">
       <c r="D33" s="1" t="s">
         <v>24</v>
       </c>
@@ -4142,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:30">
       <c r="D34" s="1" t="s">
         <v>25</v>
       </c>
@@ -4201,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:30">
       <c r="D35" s="1" t="s">
         <v>26</v>
       </c>
@@ -4275,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:30">
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
@@ -4349,12 +4486,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:30">
       <c r="D37" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>102</v>
@@ -4409,7 +4546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:30">
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
@@ -4483,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:30">
       <c r="D39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4557,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:30">
       <c r="D40" s="1" t="s">
         <v>32</v>
       </c>
@@ -4619,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:30">
       <c r="D41" s="1" t="s">
         <v>33</v>
       </c>
@@ -4693,7 +4830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:30">
       <c r="D43" s="3" t="s">
         <v>105</v>
       </c>
@@ -4767,7 +4904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:30">
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4801,7 +4938,7 @@
       </c>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:30">
       <c r="D45" s="1" t="s">
         <v>27</v>
       </c>
@@ -4848,7 +4985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:30">
       <c r="D46" s="1" t="s">
         <v>34</v>
       </c>
@@ -4894,7 +5031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:30">
       <c r="D47" s="1" t="s">
         <v>35</v>
       </c>
@@ -4940,7 +5077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:30">
       <c r="D48" s="1" t="s">
         <v>36</v>
       </c>
@@ -4987,7 +5124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:30">
       <c r="D49" s="1" t="s">
         <v>37</v>
       </c>
@@ -5034,7 +5171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:30">
       <c r="D50" s="1" t="s">
         <v>38</v>
       </c>
@@ -5080,7 +5217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:30">
       <c r="D51" s="1" t="s">
         <v>39</v>
       </c>
@@ -5127,7 +5264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:30">
       <c r="D52" s="1" t="s">
         <v>40</v>
       </c>
@@ -5174,7 +5311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:30">
       <c r="D53" s="1" t="s">
         <v>41</v>
       </c>
@@ -5221,7 +5358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:30">
       <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
@@ -5268,7 +5405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:30">
       <c r="D55" s="1" t="s">
         <v>44</v>
       </c>
@@ -5315,7 +5452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:30">
       <c r="D56" s="1" t="s">
         <v>45</v>
       </c>
@@ -5361,7 +5498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:30">
       <c r="D57" s="1" t="s">
         <v>46</v>
       </c>
@@ -5408,7 +5545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:30">
       <c r="D58" s="1" t="s">
         <v>47</v>
       </c>
@@ -5455,7 +5592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:30">
       <c r="D59" s="1" t="s">
         <v>48</v>
       </c>
@@ -5502,7 +5639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:30">
       <c r="D60" s="1" t="s">
         <v>49</v>
       </c>
@@ -5549,7 +5686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:30">
       <c r="D62" s="3" t="s">
         <v>105</v>
       </c>
@@ -5623,7 +5760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:30">
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -5657,7 +5794,7 @@
       </c>
       <c r="AD63" s="5"/>
     </row>
-    <row r="64" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:30">
       <c r="D64" s="1" t="s">
         <v>43</v>
       </c>
@@ -5701,7 +5838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:27">
       <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
@@ -5741,7 +5878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:27">
       <c r="D66" s="1" t="s">
         <v>67</v>
       </c>
@@ -5781,7 +5918,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:27">
       <c r="D67" s="1" t="s">
         <v>68</v>
       </c>
@@ -5822,7 +5959,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:27">
       <c r="D68" s="1" t="s">
         <v>69</v>
       </c>
@@ -5866,7 +6003,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="69" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:27">
       <c r="D69" s="1" t="s">
         <v>70</v>
       </c>
@@ -5909,7 +6046,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:27">
       <c r="D70" s="1" t="s">
         <v>71</v>
       </c>
@@ -5953,7 +6090,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:27">
       <c r="D71" s="1" t="s">
         <v>72</v>
       </c>
@@ -5997,7 +6134,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:27">
       <c r="D72" s="12" t="s">
         <v>73</v>
       </c>
@@ -6007,8 +6144,8 @@
       <c r="F72" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G72" s="18">
-        <v>6</v>
+      <c r="G72" s="18" t="s">
+        <v>613</v>
       </c>
       <c r="H72" s="18"/>
       <c r="I72" s="14"/>
@@ -6040,7 +6177,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:27">
       <c r="D73" s="1" t="s">
         <v>74</v>
       </c>
@@ -6084,7 +6221,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:27">
       <c r="D74" s="1" t="s">
         <v>75</v>
       </c>
@@ -6128,7 +6265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:27">
       <c r="D75" s="1" t="s">
         <v>76</v>
       </c>
@@ -6139,7 +6276,7 @@
         <v>102</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>202</v>
@@ -6168,7 +6305,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:27">
       <c r="D76" s="1" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6346,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:27">
       <c r="D77" s="1" t="s">
         <v>78</v>
       </c>
@@ -6253,7 +6390,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:27">
       <c r="D78" s="8" t="s">
         <v>79</v>
       </c>
@@ -6290,7 +6427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="4:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:27">
       <c r="D79" s="1" t="s">
         <v>80</v>
       </c>
@@ -6331,7 +6468,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:30">
       <c r="D81" s="3" t="s">
         <v>105</v>
       </c>
@@ -6405,7 +6542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:30">
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -6439,26 +6576,26 @@
       </c>
       <c r="AD82" s="5"/>
     </row>
-    <row r="83" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:30">
       <c r="D83" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="R83" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="4:30">
+      <c r="D84" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K83" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="R83" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y83" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="84" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D84" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F84" t="s">
         <v>98</v>
@@ -6467,27 +6604,27 @@
         <v>2</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I84" s="2">
         <v>4</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="R84" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="85" spans="4:30" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="4:30">
       <c r="D85" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F85" t="s">
         <v>98</v>
@@ -6496,16 +6633,16 @@
         <v>2</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I85" s="2">
         <v>4</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="R85" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
@@ -6513,15 +6650,15 @@
       <c r="V85" s="11"/>
       <c r="W85" s="11"/>
       <c r="Y85" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="86" spans="4:30" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="4:30">
       <c r="D86" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F86" t="s">
         <v>98</v>
@@ -6530,19 +6667,19 @@
         <v>2</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I86" s="2">
         <v>4</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R86" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="S86" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="T86" s="10" t="s">
         <v>101</v>
@@ -6551,15 +6688,15 @@
       <c r="V86" s="11"/>
       <c r="W86" s="11"/>
       <c r="Y86" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="87" spans="4:30" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="4:30">
       <c r="D87" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F87" t="s">
         <v>98</v>
@@ -6568,16 +6705,16 @@
         <v>2</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I87" s="2">
         <v>4</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="R87" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
@@ -6585,15 +6722,15 @@
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
       <c r="Y87" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="88" spans="4:30" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="4:30">
       <c r="D88" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F88" t="s">
         <v>98</v>
@@ -6602,16 +6739,16 @@
         <v>2</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I88" s="2">
         <v>4</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R88" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
@@ -6619,15 +6756,15 @@
       <c r="V88" s="11"/>
       <c r="W88" s="11"/>
       <c r="Y88" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="89" spans="4:30" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="4:30">
       <c r="D89" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F89" t="s">
         <v>98</v>
@@ -6636,16 +6773,16 @@
         <v>2</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I89" s="2">
         <v>4</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R89" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="S89" s="10"/>
       <c r="T89" s="10"/>
@@ -6653,15 +6790,15 @@
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="Y89" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="90" spans="4:30" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="90" spans="4:30">
       <c r="D90" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E90" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F90" t="s">
         <v>98</v>
@@ -6670,16 +6807,16 @@
         <v>2</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I90" s="2">
         <v>4</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="R90" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="S90" s="10"/>
       <c r="T90" s="10"/>
@@ -6687,15 +6824,15 @@
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="Y90" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="91" spans="4:30" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="91" spans="4:30">
       <c r="D91" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F91" t="s">
         <v>98</v>
@@ -6704,13 +6841,13 @@
         <v>2</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I91" s="2">
         <v>4</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L91" s="10"/>
       <c r="M91" s="10"/>
@@ -6718,7 +6855,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="R91" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="S91" s="10"/>
       <c r="T91" s="10"/>
@@ -6726,15 +6863,15 @@
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="Y91" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="92" spans="4:30" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92" spans="4:30">
       <c r="D92" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F92" t="s">
         <v>98</v>
@@ -6743,16 +6880,16 @@
         <v>2</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I92" s="2">
         <v>4</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="R92" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="S92" s="10"/>
       <c r="T92" s="10"/>
@@ -6760,15 +6897,15 @@
       <c r="V92" s="11"/>
       <c r="W92" s="11"/>
       <c r="Y92" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="93" spans="4:30" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="93" spans="4:30">
       <c r="D93" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E93" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F93" t="s">
         <v>98</v>
@@ -6777,27 +6914,27 @@
         <v>2</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I93" s="2">
         <v>4</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="94" spans="4:30" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="94" spans="4:30">
       <c r="D94" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F94" t="s">
         <v>98</v>
@@ -6806,27 +6943,27 @@
         <v>2</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I94" s="2">
         <v>4</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="R94" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="95" spans="4:30" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="95" spans="4:30">
       <c r="D95" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F95" t="s">
         <v>98</v>
@@ -6835,33 +6972,33 @@
         <v>2</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I95" s="2">
         <v>4</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="S95" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="T95" t="s">
         <v>101</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="96" spans="4:30" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="96" spans="4:30">
       <c r="D96" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E96" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F96" t="s">
         <v>98</v>
@@ -6870,27 +7007,40 @@
         <v>2</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I96" s="2">
         <v>4</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="M96" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="N96" s="25">
+        <v>2</v>
+      </c>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25">
+        <v>1</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="97" spans="4:30" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="97" spans="4:30">
       <c r="D97" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E97" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F97" t="s">
         <v>98</v>
@@ -6899,28 +7049,28 @@
         <v>2</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I97" s="2">
         <v>4</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="S97" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T97" t="s">
         <v>101</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="Z97" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA97" t="s">
         <v>101</v>
@@ -6935,12 +7085,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:30">
       <c r="D98" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F98" t="s">
         <v>98</v>
@@ -6949,22 +7099,22 @@
         <v>2</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I98" s="2">
         <v>4</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="100" spans="4:30" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="100" spans="4:30">
       <c r="D100" s="3" t="s">
         <v>105</v>
       </c>
@@ -7020,7 +7170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:30">
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -7046,9 +7196,9 @@
       </c>
       <c r="AD101" s="5"/>
     </row>
-    <row r="102" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:30">
       <c r="D102" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
@@ -7056,15 +7206,15 @@
       <c r="H102" s="19"/>
       <c r="I102" s="11"/>
       <c r="R102" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="103" spans="4:30" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="103" spans="4:30">
       <c r="D103" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
@@ -7072,15 +7222,15 @@
       <c r="H103" s="19"/>
       <c r="I103" s="11"/>
       <c r="R103" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="104" spans="4:30" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="104" spans="4:30">
       <c r="D104" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
@@ -7088,7 +7238,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="11"/>
       <c r="R104" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="S104" s="10"/>
       <c r="T104" s="10"/>
@@ -7096,12 +7246,12 @@
       <c r="V104" s="11"/>
       <c r="W104" s="11"/>
       <c r="Y104" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="105" spans="4:30" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="105" spans="4:30">
       <c r="D105" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
@@ -7109,10 +7259,10 @@
       <c r="H105" s="19"/>
       <c r="I105" s="11"/>
       <c r="R105" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="S105" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="T105" s="10" t="s">
         <v>118</v>
@@ -7121,12 +7271,12 @@
       <c r="V105" s="11"/>
       <c r="W105" s="11"/>
       <c r="Y105" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="106" spans="4:30" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" spans="4:30">
       <c r="D106" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -7134,7 +7284,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="11"/>
       <c r="R106" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="S106" s="10"/>
       <c r="T106" s="10"/>
@@ -7142,12 +7292,12 @@
       <c r="V106" s="11"/>
       <c r="W106" s="11"/>
       <c r="Y106" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="107" spans="4:30" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="4:30">
       <c r="D107" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -7155,7 +7305,7 @@
       <c r="H107" s="19"/>
       <c r="I107" s="11"/>
       <c r="R107" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="S107" s="10"/>
       <c r="T107" s="10"/>
@@ -7163,12 +7313,12 @@
       <c r="V107" s="11"/>
       <c r="W107" s="11"/>
       <c r="Y107" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="108" spans="4:30" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108" spans="4:30">
       <c r="D108" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
@@ -7176,7 +7326,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="11"/>
       <c r="R108" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="S108" s="10"/>
       <c r="T108" s="10"/>
@@ -7184,12 +7334,12 @@
       <c r="V108" s="11"/>
       <c r="W108" s="11"/>
       <c r="Y108" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="109" spans="4:30" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="4:30">
       <c r="D109" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
@@ -7197,7 +7347,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="11"/>
       <c r="R109" s="22" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="S109" s="10"/>
       <c r="T109" s="10"/>
@@ -7205,12 +7355,12 @@
       <c r="V109" s="11"/>
       <c r="W109" s="11"/>
       <c r="Y109" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="110" spans="4:30" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" spans="4:30">
       <c r="D110" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
@@ -7218,7 +7368,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="11"/>
       <c r="R110" s="22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="S110" s="10"/>
       <c r="T110" s="10"/>
@@ -7226,12 +7376,12 @@
       <c r="V110" s="11"/>
       <c r="W110" s="11"/>
       <c r="Y110" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="111" spans="4:30" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="111" spans="4:30">
       <c r="D111" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
@@ -7239,7 +7389,7 @@
       <c r="H111" s="19"/>
       <c r="I111" s="11"/>
       <c r="R111" s="22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="S111" s="10"/>
       <c r="T111" s="10"/>
@@ -7247,12 +7397,12 @@
       <c r="V111" s="11"/>
       <c r="W111" s="11"/>
       <c r="Y111" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="112" spans="4:30" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="112" spans="4:30">
       <c r="D112" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
@@ -7260,15 +7410,15 @@
       <c r="H112" s="19"/>
       <c r="I112" s="11"/>
       <c r="R112" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="113" spans="4:30" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="4:30">
       <c r="D113" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
@@ -7276,15 +7426,15 @@
       <c r="H113" s="19"/>
       <c r="I113" s="11"/>
       <c r="R113" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="114" spans="4:30" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="114" spans="4:30">
       <c r="D114" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
@@ -7292,21 +7442,21 @@
       <c r="H114" s="19"/>
       <c r="I114" s="11"/>
       <c r="R114" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="S114" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="T114" t="s">
         <v>118</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="115" spans="4:30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="115" spans="4:30">
       <c r="D115" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
@@ -7314,15 +7464,15 @@
       <c r="H115" s="19"/>
       <c r="I115" s="11"/>
       <c r="R115" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="116" spans="4:30" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="116" spans="4:30">
       <c r="D116" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
@@ -7330,30 +7480,30 @@
       <c r="H116" s="19"/>
       <c r="I116" s="11"/>
       <c r="R116" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="S116" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T116" t="s">
         <v>118</v>
       </c>
       <c r="Y116" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Z116" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA116" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:30">
       <c r="D117" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E117" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>412</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>102</v>
@@ -7366,25 +7516,25 @@
         <v>2</v>
       </c>
       <c r="R117" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="S117" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T117" t="s">
         <v>118</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Z117" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AA117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:30">
       <c r="D119" s="3" t="s">
         <v>105</v>
       </c>
@@ -7440,7 +7590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:30">
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -7466,12 +7616,12 @@
       </c>
       <c r="AD120" s="5"/>
     </row>
-    <row r="121" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:30">
       <c r="D121" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E121" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F121" t="s">
         <v>102</v>
@@ -7483,59 +7633,59 @@
         <v>2</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Y121" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="122" spans="4:30" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="122" spans="4:30">
       <c r="D122" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E122" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F122" t="s">
         <v>101</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I122" s="2">
         <v>4</v>
       </c>
       <c r="R122" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="123" spans="4:30" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="123" spans="4:30">
       <c r="D123" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E123" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F123" t="s">
         <v>101</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I123" s="2">
         <v>4</v>
       </c>
       <c r="R123" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
@@ -7543,33 +7693,33 @@
       <c r="V123" s="11"/>
       <c r="W123" s="11"/>
       <c r="Y123" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="124" spans="4:30" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="124" spans="4:30">
       <c r="D124" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E124" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F124" t="s">
         <v>118</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I124" s="2">
         <v>3</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="S124" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="T124" s="10" t="s">
         <v>100</v>
@@ -7578,30 +7728,30 @@
       <c r="V124" s="11"/>
       <c r="W124" s="11"/>
       <c r="Y124" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="125" spans="4:30" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="125" spans="4:30">
       <c r="D125" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E125" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F125" t="s">
         <v>118</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I125" s="2">
         <v>3</v>
       </c>
       <c r="R125" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
@@ -7609,27 +7759,27 @@
       <c r="V125" s="11"/>
       <c r="W125" s="11"/>
       <c r="Y125" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="126" spans="4:30" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="126" spans="4:30">
       <c r="D126" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E126" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F126" t="s">
         <v>100</v>
       </c>
       <c r="H126" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
@@ -7637,27 +7787,27 @@
       <c r="V126" s="11"/>
       <c r="W126" s="11"/>
       <c r="Y126" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="127" spans="4:30" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="127" spans="4:30">
       <c r="D127" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E127" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F127" t="s">
         <v>100</v>
       </c>
       <c r="H127" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
@@ -7665,30 +7815,30 @@
       <c r="V127" s="11"/>
       <c r="W127" s="11"/>
       <c r="Y127" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="128" spans="4:30" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="128" spans="4:30">
       <c r="D128" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E128" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F128" t="s">
         <v>207</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I128" s="2">
         <v>4</v>
       </c>
       <c r="R128" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
@@ -7696,30 +7846,30 @@
       <c r="V128" s="11"/>
       <c r="W128" s="11"/>
       <c r="Y128" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="129" spans="4:30" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="129" spans="4:30">
       <c r="D129" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E129" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F129" t="s">
         <v>207</v>
       </c>
       <c r="G129" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I129" s="2">
         <v>4</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
@@ -7727,12 +7877,12 @@
       <c r="V129" s="11"/>
       <c r="W129" s="11"/>
       <c r="Y129" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="130" spans="4:30" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="130" spans="4:30">
       <c r="R130" s="22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
@@ -7740,50 +7890,50 @@
       <c r="V130" s="11"/>
       <c r="W130" s="11"/>
       <c r="Y130" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="131" spans="4:30" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="131" spans="4:30">
       <c r="R131" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="132" spans="4:30" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="132" spans="4:30">
       <c r="R132" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="133" spans="4:30" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="133" spans="4:30">
       <c r="R133" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="S133" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="T133" t="s">
         <v>100</v>
       </c>
       <c r="Y133" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="134" spans="4:30" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="134" spans="4:30">
       <c r="R134" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="Y134" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="135" spans="4:30" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="135" spans="4:30">
       <c r="D135" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -7791,78 +7941,78 @@
       <c r="H135" s="17"/>
       <c r="K135" s="1"/>
       <c r="R135" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="S135" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T135" t="s">
         <v>100</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Z135" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA135" t="s">
         <v>100</v>
       </c>
       <c r="AC135" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="136" spans="4:30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="136" spans="4:30">
       <c r="D136" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F136" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K136" s="1"/>
       <c r="R136" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="S136" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T136" t="s">
         <v>100</v>
       </c>
       <c r="Y136" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="Z136" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AA136" t="s">
         <v>100</v>
       </c>
       <c r="AC136" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD136" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="137" spans="4:30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="137" spans="4:30">
       <c r="D137" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F137" t="s">
+        <v>417</v>
+      </c>
+      <c r="K137" s="16"/>
+    </row>
+    <row r="138" spans="4:30">
+      <c r="D138" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="F138" t="s">
         <v>418</v>
-      </c>
-      <c r="K137" s="16"/>
-    </row>
-    <row r="138" spans="4:30" x14ac:dyDescent="0.25">
-      <c r="D138" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="F138" t="s">
-        <v>419</v>
       </c>
       <c r="K138" s="1"/>
       <c r="R138" s="3" t="s">
@@ -7902,12 +8052,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:30">
       <c r="D139" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F139" t="s">
         <v>420</v>
-      </c>
-      <c r="F139" t="s">
-        <v>421</v>
       </c>
       <c r="K139" s="1"/>
       <c r="R139" s="3"/>
@@ -7927,82 +8077,82 @@
       </c>
       <c r="AD139" s="5"/>
     </row>
-    <row r="140" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:30">
       <c r="D140" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F140" t="s">
         <v>422</v>
-      </c>
-      <c r="F140" t="s">
-        <v>423</v>
       </c>
       <c r="K140" s="1"/>
       <c r="R140" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="Y140" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="141" spans="4:30" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="141" spans="4:30">
       <c r="D141" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F141" t="s">
         <v>424</v>
-      </c>
-      <c r="F141" t="s">
-        <v>425</v>
       </c>
       <c r="K141" s="1"/>
       <c r="R141" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="142" spans="4:30" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="142" spans="4:30">
       <c r="D142" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="F142" t="s">
         <v>426</v>
-      </c>
-      <c r="F142" t="s">
-        <v>427</v>
       </c>
       <c r="K142" s="1"/>
       <c r="R142" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="143" spans="4:30" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="143" spans="4:30">
       <c r="D143" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F143" t="s">
         <v>428</v>
-      </c>
-      <c r="F143" t="s">
-        <v>429</v>
       </c>
       <c r="K143" s="1"/>
       <c r="R143" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="S143" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="T143" t="s">
         <v>207</v>
       </c>
       <c r="Y143" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="144" spans="4:30" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="4:30">
       <c r="D144" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="F144" t="s">
         <v>430</v>
-      </c>
-      <c r="F144" t="s">
-        <v>431</v>
       </c>
       <c r="K144" s="1"/>
       <c r="R144" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
@@ -8010,155 +8160,167 @@
       <c r="V144" s="11"/>
       <c r="W144" s="11"/>
       <c r="Y144" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="145" spans="4:30" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="145" spans="4:30">
       <c r="D145" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="F145" t="s">
         <v>432</v>
-      </c>
-      <c r="F145" t="s">
-        <v>433</v>
       </c>
       <c r="K145" s="16"/>
       <c r="R145" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Y145" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="146" spans="4:30" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="146" spans="4:30">
       <c r="D146" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>435</v>
+        <v>627</v>
       </c>
       <c r="G146" s="18"/>
       <c r="H146" s="18"/>
       <c r="K146" s="1"/>
       <c r="R146" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Y146" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="147" spans="4:30" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="147" spans="4:30">
       <c r="D147" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F147" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K147" s="1"/>
       <c r="R147" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Y147" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="148" spans="4:30" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="148" spans="4:30">
       <c r="D148" s="20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F148" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K148" s="1"/>
       <c r="R148" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y148" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="149" spans="4:30" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="4:30">
       <c r="D149" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="F149" t="s">
         <v>440</v>
-      </c>
-      <c r="F149" t="s">
-        <v>442</v>
       </c>
       <c r="K149" s="16"/>
       <c r="R149" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="Y149" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="150" spans="4:30" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="150" spans="4:30">
       <c r="D150" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>443</v>
+        <v>628</v>
       </c>
       <c r="G150" s="18"/>
       <c r="H150" s="18"/>
       <c r="R150" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Y150" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="151" spans="4:30" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="151" spans="4:30">
       <c r="D151" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F151" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Y151" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="152" spans="4:30" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="152" spans="4:30">
       <c r="R152" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="S152" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="T152" t="s">
         <v>207</v>
       </c>
       <c r="Y152" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="153" spans="4:30" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="153" spans="4:30">
+      <c r="D153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>651</v>
+      </c>
       <c r="R153" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Y153" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="154" spans="4:30" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="4:30">
+      <c r="D154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>652</v>
+      </c>
       <c r="R154" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="S154" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T154" t="s">
         <v>207</v>
       </c>
       <c r="Y154" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Z154" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA154" t="s">
         <v>207</v>
@@ -8173,21 +8335,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="4:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:30">
+      <c r="D155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" t="s">
+        <v>653</v>
+      </c>
       <c r="R155" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="S155" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="T155" t="s">
         <v>207</v>
       </c>
       <c r="Y155" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="Z155" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AA155" t="s">
         <v>207</v>
@@ -8202,9 +8370,160 @@
         <v>4</v>
       </c>
     </row>
+    <row r="156" spans="4:30">
+      <c r="D156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="158" spans="4:30">
+      <c r="D158" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="4:30">
+      <c r="D159" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="F159" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="160" spans="4:30">
+      <c r="D160" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="F160" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8">
+      <c r="D161" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="F161" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8">
+      <c r="D162" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="F162" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8">
+      <c r="D163" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="F163" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8">
+      <c r="D164" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="F164" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8">
+      <c r="D165" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="F165" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8">
+      <c r="D166" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="F166" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8">
+      <c r="D167" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="F167" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8">
+      <c r="D168" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="F168" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8">
+      <c r="D169" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="G169" s="18"/>
+      <c r="H169" s="18"/>
+    </row>
+    <row r="170" spans="4:8">
+      <c r="D170" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="F170" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="171" spans="4:8">
+      <c r="D171" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="F171" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="172" spans="4:8">
+      <c r="D172" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="F172" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="173" spans="4:8">
+      <c r="D173" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18"/>
+    </row>
+    <row r="174" spans="4:8">
+      <c r="D174" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="F174" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8215,60 +8534,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="C3" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="6" spans="2:5">
+      <c r="C6" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="8" spans="2:5">
+      <c r="C8" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8277,12 +8596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
